--- a/PBL2022_WEB01/00.日報/日報 (仲山莉功).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (仲山莉功).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="71">
   <si>
     <t>氏名</t>
   </si>
@@ -235,6 +235,21 @@
   </si>
   <si>
     <t>お疲れ様でした。多数の作業が同時に進まないといけないので、役割を明確に指示した方が良いと思います。</t>
+  </si>
+  <si>
+    <t>基本設計で条件付きOKを頂いた。システムテスト設計、実装を開始した。</t>
+  </si>
+  <si>
+    <t>作業の遅れが深刻である。時間外での作業をメンバー全員に呼びかける必要がある。</t>
+  </si>
+  <si>
+    <t>残り2週間で4週間分の作業を行う必要がある。全員で分担して作業の効率化を図り、時間外での作業を呼びかける。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。納期まで時間がないので、他の人と協力して実装やテスト設計を進めてください。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。画面のデザインより機能を優先してください。適切な役割分担を行えるため、指示を工夫してください。</t>
   </si>
 </sst>
 </file>
@@ -13610,14 +13625,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -13631,7 +13650,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -13693,8 +13712,12 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12">
+        <v>5.0</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
@@ -13702,8 +13725,12 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10.0</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
@@ -13711,28 +13738,48 @@
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="12">
+        <v>90.0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12">
+        <v>40.0</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="12">
+        <v>30.0</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
@@ -13783,7 +13830,9 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -13792,7 +13841,9 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
@@ -13801,7 +13852,9 @@
       <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
@@ -13810,17 +13863,21 @@
       <c r="A19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="B19" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
@@ -13829,7 +13886,9 @@
       <c r="A22" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
@@ -13845,7 +13904,9 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
